--- a/xlsx/政策_政策_社会政策_intext.xlsx
+++ b/xlsx/政策_政策_社会政策_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>社会政策</t>
   </si>
@@ -282,198 +282,6 @@
   </si>
   <si>
     <t>计划经济</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B3%D9%8A%D8%A7%D8%B3%D8%A9_%D8%A7%D8%AC%D8%AA%D9%85%D8%A7%D8%B9%D9%8A%D8%A9</t>
-  </si>
-  <si>
-    <t>سياسة اجتماعية – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%A1%D0%B0%D1%86%D1%8B%D1%8F%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F_%D0%BF%D0%B0%D0%BB%D1%96%D1%82%D1%8B%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Сацыяльная палітыка – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%A1%D0%BE%D1%86%D0%B8%D0%B0%D0%BB%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Социална политика – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Pol%C3%ADtica_social</t>
-  </si>
-  <si>
-    <t>Política social – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Soci%C3%A1ln%C3%AD_politika</t>
-  </si>
-  <si>
-    <t>Sociální politika – 捷克语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Socialpolitik</t>
-  </si>
-  <si>
-    <t>Socialpolitik – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Sozialpolitik</t>
-  </si>
-  <si>
-    <t>Sozialpolitik – 德语</t>
-  </si>
-  <si>
-    <t>https://diq.wikipedia.org/wiki/Politika_sosyale</t>
-  </si>
-  <si>
-    <t>Politika sosyale – Zazaki</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_policy</t>
-  </si>
-  <si>
-    <t>Social policy – 英语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Pol%C3%ADtica_social</t>
-  </si>
-  <si>
-    <t>Política social – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/Sotsiaalpoliitika</t>
-  </si>
-  <si>
-    <t>Sotsiaalpoliitika – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA_%D8%A7%D8%AC%D8%AA%D9%85%D8%A7%D8%B9%DB%8C</t>
-  </si>
-  <si>
-    <t>سیاست اجتماعی – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Sosiaalipolitiikka</t>
-  </si>
-  <si>
-    <t>Sosiaalipolitiikka – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Politique_sociale</t>
-  </si>
-  <si>
-    <t>Politique sociale – 法语</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Socijalna_politika</t>
-  </si>
-  <si>
-    <t>Socijalna politika – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D5%8D%D5%B8%D6%81%D5%AB%D5%A1%D5%AC%D5%A1%D5%AF%D5%A1%D5%B6_%D6%84%D5%A1%D5%B2%D5%A1%D6%84%D5%A1%D5%AF%D5%A1%D5%B6%D5%B8%D6%82%D5%A9%D5%B5%D5%B8%D6%82%D5%B6</t>
-  </si>
-  <si>
-    <t>Սոցիալական քաղաքականություն – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Kebijakan_sosial</t>
-  </si>
-  <si>
-    <t>Kebijakan sosial – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>社会政策 – 日语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D3%98%D0%BB%D0%B5%D1%83%D0%BC%D0%B5%D1%82%D1%82%D1%96%D0%BA_%D1%81%D0%B0%D1%8F%D1%81%D0%B0%D1%82</t>
-  </si>
-  <si>
-    <t>Әлеуметтік саясат – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Socialin%C4%97_politika</t>
-  </si>
-  <si>
-    <t>Socialinė politika – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/Sosialpolitikk</t>
-  </si>
-  <si>
-    <t>Sosialpolitikk – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Sosialpolitikk</t>
-  </si>
-  <si>
-    <t>Sosialpolitikk – 挪威语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Polityka_spo%C5%82eczna</t>
-  </si>
-  <si>
-    <t>Polityka społeczna – 波兰语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Politica_social%C4%83</t>
-  </si>
-  <si>
-    <t>Politica socială – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%A1%D0%BE%D1%86%D0%B8%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Социальная политика – 俄语</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Soci%C3%A1lna_politika</t>
-  </si>
-  <si>
-    <t>Sociálna politika – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%A1%D0%BE%D1%86%D0%B8%D1%98%D0%B0%D0%BB%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Социјална политика – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Socialpolitik</t>
-  </si>
-  <si>
-    <t>Socialpolitik – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Sosyal_politika</t>
-  </si>
-  <si>
-    <t>Sosyal politika – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%A1%D0%BE%D1%86%D1%96%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D1%96%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Соціальна політика – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://war.wikipedia.org/wiki/Polisiya_pankatiringban</t>
-  </si>
-  <si>
-    <t>Polisiya pankatiringban – 瓦瑞语</t>
-  </si>
-  <si>
-    <t>https://zh-min-nan.wikipedia.org/wiki/Si%C4%81-h%C5%8De_ch%C3%A8ng-chhek</t>
-  </si>
-  <si>
-    <t>Siā-hōe chèng-chhek – Chinese (Min Nan)</t>
   </si>
 </sst>
 </file>
@@ -822,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2132,934 +1940,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>48</v>
-      </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>49</v>
-      </c>
-      <c r="E50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>51</v>
-      </c>
-      <c r="E52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>52</v>
-      </c>
-      <c r="E53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>54</v>
-      </c>
-      <c r="E55" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>55</v>
-      </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56</v>
-      </c>
-      <c r="E57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>57</v>
-      </c>
-      <c r="E58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>58</v>
-      </c>
-      <c r="E59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>59</v>
-      </c>
-      <c r="E60" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>60</v>
-      </c>
-      <c r="E61" t="s">
-        <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>61</v>
-      </c>
-      <c r="E62" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>62</v>
-      </c>
-      <c r="E63" t="s">
-        <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>64</v>
-      </c>
-      <c r="E65" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>65</v>
-      </c>
-      <c r="E66" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>66</v>
-      </c>
-      <c r="E67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>68</v>
-      </c>
-      <c r="E69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>69</v>
-      </c>
-      <c r="E70" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>70</v>
-      </c>
-      <c r="E71" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>71</v>
-      </c>
-      <c r="E72" t="s">
-        <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>72</v>
-      </c>
-      <c r="E73" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73</v>
-      </c>
-      <c r="E74" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>74</v>
-      </c>
-      <c r="E75" t="s">
-        <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>75</v>
-      </c>
-      <c r="E76" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/政策_政策_社会政策_intext.xlsx
+++ b/xlsx/政策_政策_社会政策_intext.xlsx
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E6%94%BF%E7%AD%96</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
